--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15855" yWindow="0" windowWidth="12945" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7740" yWindow="315" windowWidth="12885" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -436,7 +436,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>18.2.2023</t>
+          <t>22.2.2023</t>
         </is>
       </c>
     </row>
@@ -451,10 +451,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -556,6 +556,103 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ke0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>сс0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sy0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>fy0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gt0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sf0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>by0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ml0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>sr0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>as0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>se0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>je0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>bg0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>gn0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>pm0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>vl0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>on0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>or0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7740" yWindow="315" windowWidth="12885" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C5"/>
@@ -440,6 +440,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,7 +455,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C5"/>
@@ -440,7 +440,41 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Константин2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2К</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>26.2.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qiviCHAN3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3q</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>26.2.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -452,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -654,6 +688,200 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2К</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ke0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>сс0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sy0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fy0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gt0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sf0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>by0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ml0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>sr0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>as0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>se0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>je0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>bg0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>gn0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>pm0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>vl0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>on0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>or0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3q</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ke0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>сс0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sy0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>fy0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gt0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sf0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>by0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ml0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>sr0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>as0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>se0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>je0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>bg0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>gn0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>pm0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>vl0</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>on0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>or0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -394,15 +394,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.85546875" customWidth="1" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" min="2" max="2"/>
     <col width="18.85546875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -426,55 +427,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>magnitgd</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1m</t>
-        </is>
+          <t>Константин1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>987393560</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>22.2.2023</t>
+          <t>26.2.2023</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Константин2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2К</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>26.2.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>qiviCHAN3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3q</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>26.2.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -486,13 +450,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A2:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.140625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -592,10 +559,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1m</t>
-        </is>
+      <c r="A2" t="n">
+        <v>987393560</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -683,200 +648,6 @@
         </is>
       </c>
       <c r="S2" t="inlineStr">
-        <is>
-          <t>or0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2К</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ke0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>сс0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sy0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>fy0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>gt0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>sf0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>by0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ml0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>sr0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>as0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>se0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>je0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>bg0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>gn0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>pm0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>vl0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>on0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>or0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3q</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ke0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>сс0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sy0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>fy0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>gt0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>sf0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>by0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ml0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>sr0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>as0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>se0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>je0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>bg0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>gn0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>pm0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>vl0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>on0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
         <is>
           <t>or0</t>
         </is>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:C7"/>
+      <selection activeCell="A6" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -427,7 +427,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Константин1</t>
+          <t>magnitgd</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -453,7 +453,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:S15"/>
+      <selection activeCell="A17" sqref="A2:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15600" yWindow="3180" windowWidth="12180" windowHeight="10950" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:C6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -427,7 +427,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>magnitgd</t>
+          <t>Константин1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -452,109 +452,114 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:S17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.140625" customWidth="1" min="1" max="1"/>
+    <col width="14.140625" customWidth="1" min="4" max="4"/>
+    <col width="10.28515625" customWidth="1" min="5" max="5"/>
+    <col width="13.85546875" customWidth="1" min="6" max="6"/>
+    <col width="13.140625" customWidth="1" min="7" max="7"/>
+    <col width="11.5703125" customWidth="1" min="8" max="8"/>
+    <col width="10.140625" customWidth="1" min="9" max="9"/>
+    <col width="15.42578125" customWidth="1" min="12" max="12"/>
+    <col width="11.42578125" customWidth="1" min="13" max="13"/>
+    <col width="14.5703125" customWidth="1" min="16" max="16"/>
+    <col width="10.85546875" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>botid</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>баз хп</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>classic</t>
+          <t>баз урон</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>shorty</t>
+          <t>баз уклонение</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>frenzy</t>
+          <t>баз броня</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ghost</t>
+          <t>шанс хедшота</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>sheriff</t>
+          <t>баз меткость</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>bucky</t>
+          <t>уклонение%</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>marshal</t>
+          <t>меткость%</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>stinger</t>
+          <t>урон+</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ares</t>
+          <t>броня+</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>spectre</t>
+          <t>шанс хедшота%</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>уклонение+</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>bulldog</t>
+          <t>хп+</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>guardian</t>
+          <t>хп%</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>phantom</t>
+          <t>шанс хедшота+</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>vandal</t>
+          <t>урон%</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>odin</t>
+          <t>броня%</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>operator</t>
+          <t>меткость+</t>
         </is>
       </c>
     </row>
@@ -569,7 +574,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>сс0</t>
+          <t>cc0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -1,173 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\Documents\GitHub\valoshopbot\ValoShop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F4257-1457-4F46-9535-174371FD3024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="3840" windowWidth="12180" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9990" yWindow="3840" windowWidth="17205" windowHeight="10950" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="usersInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="usersEquipped" sheetId="2" r:id="rId2"/>
+    <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="usersEquipped" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>tgid</t>
-  </si>
-  <si>
-    <t>botid</t>
-  </si>
-  <si>
-    <t>regdate</t>
-  </si>
-  <si>
-    <t>Константин1</t>
-  </si>
-  <si>
-    <t>26.2.2023</t>
-  </si>
-  <si>
-    <t>баз хп</t>
-  </si>
-  <si>
-    <t>баз урон</t>
-  </si>
-  <si>
-    <t>баз уклонение</t>
-  </si>
-  <si>
-    <t>баз броня</t>
-  </si>
-  <si>
-    <t>шанс хедшота</t>
-  </si>
-  <si>
-    <t>баз меткость</t>
-  </si>
-  <si>
-    <t>уклонение%</t>
-  </si>
-  <si>
-    <t>меткость%</t>
-  </si>
-  <si>
-    <t>урон+</t>
-  </si>
-  <si>
-    <t>броня+</t>
-  </si>
-  <si>
-    <t>шанс хедшота%</t>
-  </si>
-  <si>
-    <t>уклонение+</t>
-  </si>
-  <si>
-    <t>хп+</t>
-  </si>
-  <si>
-    <t>хп%</t>
-  </si>
-  <si>
-    <t>шанс хедшота+</t>
-  </si>
-  <si>
-    <t>урон%</t>
-  </si>
-  <si>
-    <t>броня%</t>
-  </si>
-  <si>
-    <t>меткость+</t>
-  </si>
-  <si>
-    <t>ke0</t>
-  </si>
-  <si>
-    <t>cc0</t>
-  </si>
-  <si>
-    <t>sy0</t>
-  </si>
-  <si>
-    <t>fy0</t>
-  </si>
-  <si>
-    <t>gt0</t>
-  </si>
-  <si>
-    <t>sf0</t>
-  </si>
-  <si>
-    <t>by0</t>
-  </si>
-  <si>
-    <t>ml0</t>
-  </si>
-  <si>
-    <t>sr0</t>
-  </si>
-  <si>
-    <t>as0</t>
-  </si>
-  <si>
-    <t>se0</t>
-  </si>
-  <si>
-    <t>je0</t>
-  </si>
-  <si>
-    <t>bg0</t>
-  </si>
-  <si>
-    <t>gn0</t>
-  </si>
-  <si>
-    <t>pm0</t>
-  </si>
-  <si>
-    <t>vl0</t>
-  </si>
-  <si>
-    <t>on0</t>
-  </si>
-  <si>
-    <t>or0</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,22 +49,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,44 +389,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col width="16.85546875" customWidth="1" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" min="2" max="2"/>
+    <col width="18.85546875" customWidth="1" min="3" max="3"/>
+    <col width="16.42578125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tgid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>botid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>regdate</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>magnitgd</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>987393560</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>26.2.2023</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
@@ -513,141 +454,217 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col width="15.140625" customWidth="1" min="1" max="1"/>
+    <col width="14.140625" customWidth="1" min="4" max="4"/>
+    <col width="10.28515625" customWidth="1" min="5" max="5"/>
+    <col width="13.85546875" customWidth="1" min="6" max="6"/>
+    <col width="13.140625" customWidth="1" min="7" max="7"/>
+    <col width="11.5703125" customWidth="1" min="8" max="8"/>
+    <col width="10.140625" customWidth="1" min="9" max="9"/>
+    <col width="15.42578125" customWidth="1" min="12" max="12"/>
+    <col width="11.42578125" customWidth="1" min="13" max="13"/>
+    <col width="14.5703125" customWidth="1" min="16" max="16"/>
+    <col width="10.85546875" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>баз хп</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>баз урон</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>баз уклонение</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>баз броня</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>шанс хедшота</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>баз меткость</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>уклонение%</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>меткость%</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>урон+</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>броня+</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>шанс хедшота%</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>уклонение+</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>хп+</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>хп%</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>шанс хедшота+</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>урон%</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>броня%</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>меткость+</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>987393560</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ke13</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>сс0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sy0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>fy0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gt0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sf0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>by0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ml0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>sr0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>as0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>se0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>je0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>bg0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>gn0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>pm0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>vl0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>on0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>or0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\Documents\GitHub\valoshopbot\ValoShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADF546-31EC-4E6B-99B6-8B0D60926504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28846D10-A63E-4740-94E2-28D6F864EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>tgid</t>
   </si>
@@ -56,6 +56,9 @@
     <t>шанс хедшота</t>
   </si>
   <si>
+    <t>баз меткость%</t>
+  </si>
+  <si>
     <t>уклонение%</t>
   </si>
   <si>
@@ -95,7 +98,7 @@
     <t>ke13</t>
   </si>
   <si>
-    <t>сс0</t>
+    <t>cc0</t>
   </si>
   <si>
     <t>sy0</t>
@@ -107,6 +110,9 @@
     <t>gt0</t>
   </si>
   <si>
+    <t>sf0</t>
+  </si>
+  <si>
     <t>by0</t>
   </si>
   <si>
@@ -143,10 +149,7 @@
     <t>or0</t>
   </si>
   <si>
-    <t>баз меткость%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>fullinv</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +483,10 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +499,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -519,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,43 +562,43 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -599,58 +606,58 @@
         <v>987393560</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -455,7 +455,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ke0, cc0, sy0, fy0, gt0, sf0, by0, ml0, sr0, as0, se0, je0, bg0, gn0, pm0, vl0, on0, or0</t>
+          <t>ke0, cc0, sy0, fy0, gt0, sf0, by0, ml0, sr0, as0, se0, je0, bg0, gn0, pm0, vl0, on0, or0, ke24</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
@@ -459,6 +459,29 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>parthen</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>694928710</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.4.2023</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ke0, cc0, sy0, fy0, gt0, sf0, by0, ml0, sr0, as0, se0, je0, bg0, gn0, pm0, vl0, on0, or0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -678,6 +701,101 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>694928710</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ke0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cc0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sy0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fy0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gt0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sf0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>by0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ml0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>sr0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>as0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>se0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>je0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>bg0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>gn0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>pm0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>vl0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>on0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>or0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ValoShop/users.xlsx
+++ b/ValoShop/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -125,6 +122,48 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица2" displayName="Таблица2" ref="A1:AG2" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:AG2"/>
+  <tableColumns count="33">
+    <tableColumn id="1" name="пользователь"/>
+    <tableColumn id="2" name="баз хп"/>
+    <tableColumn id="3" name="баз урон"/>
+    <tableColumn id="4" name="баз уклонение"/>
+    <tableColumn id="5" name="баз броня"/>
+    <tableColumn id="6" name="шанс хедшота"/>
+    <tableColumn id="7" name="баз меткость%"/>
+    <tableColumn id="8" name="уклонение%"/>
+    <tableColumn id="9" name="меткость%"/>
+    <tableColumn id="10" name="урон+"/>
+    <tableColumn id="11" name="броня+"/>
+    <tableColumn id="12" name="шанс хедшота%"/>
+    <tableColumn id="13" name="уклонение+"/>
+    <tableColumn id="14" name="хп+"/>
+    <tableColumn id="15" name="хп%"/>
+    <tableColumn id="16" name="шанс хедшота+"/>
+    <tableColumn id="17" name="урон%"/>
+    <tableColumn id="18" name="броня%"/>
+    <tableColumn id="19" name="меткость+"/>
+    <tableColumn id="20" name="Столбец1"/>
+    <tableColumn id="21" name="Столбец2"/>
+    <tableColumn id="22" name="Столбец3"/>
+    <tableColumn id="23" name="Столбец4"/>
+    <tableColumn id="24" name="Столбец5"/>
+    <tableColumn id="25" name="Столбец6"/>
+    <tableColumn id="26" name="Столбец7"/>
+    <tableColumn id="27" name="Столбец8"/>
+    <tableColumn id="28" name="Столбец9"/>
+    <tableColumn id="29" name="Столбец10"/>
+    <tableColumn id="30" name="Столбец11"/>
+    <tableColumn id="31" name="Столбец12"/>
+    <tableColumn id="32" name="Столбец13"/>
+    <tableColumn id="33" name="Столбец14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,19 +433,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="A2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.85546875" customWidth="1" min="1" max="1"/>
-    <col width="19.42578125" customWidth="1" min="2" max="2"/>
-    <col width="18.85546875" customWidth="1" min="3" max="3"/>
-    <col width="16.42578125" customWidth="1" min="4" max="4"/>
-    <col width="17.140625" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13.42578125" customWidth="1" min="4" max="4"/>
+    <col width="83.28515625" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="25.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,6 +474,96 @@
           <t>fullinv</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>changingid</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>store</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Столбец3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Столбец4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Столбец5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Столбец6</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Столбец7</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Столбец8</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Столбец9</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Столбец10</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Столбец11</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Столбец12</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Столбец13</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Столбец14</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Столбец15</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Столбец16</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Столбец17</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Столбец18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -445,9 +574,9 @@
       <c r="B2" t="n">
         <v>987393560</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>28.2.2023</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22.1.2024</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -455,30 +584,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ke0, cc0, sy0, fy0, gt0, sf0, by0, ml0, sr0, as0, se0, je0, bg0, gn0, pm0, vl0, on0, or0, ke24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>parthen</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>694928710</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.4.2023</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>17000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>ke0, cc0, sy0, fy0, gt0, sf0, by0, ml0, sr0, as0, se0, je0, bg0, gn0, pm0, vl0, on0, or0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['pm22', 'vl17', 'vl11', 'gt11']</t>
         </is>
       </c>
     </row>
@@ -488,33 +604,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.140625" customWidth="1" min="1" max="1"/>
-    <col width="14.140625" customWidth="1" min="4" max="4"/>
-    <col width="10.28515625" customWidth="1" min="5" max="5"/>
-    <col width="13.85546875" customWidth="1" min="6" max="6"/>
-    <col width="14.42578125" customWidth="1" min="7" max="7"/>
-    <col width="11.5703125" customWidth="1" min="8" max="8"/>
-    <col width="10.140625" customWidth="1" min="9" max="9"/>
-    <col width="15.42578125" customWidth="1" min="12" max="12"/>
-    <col width="11.42578125" customWidth="1" min="13" max="13"/>
-    <col width="14.5703125" customWidth="1" min="16" max="16"/>
-    <col width="10.85546875" customWidth="1" min="19" max="19"/>
+    <col width="15.5703125" customWidth="1" min="1" max="1"/>
+    <col width="10.85546875" customWidth="1" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" min="4" max="4"/>
+    <col width="12.140625" customWidth="1" min="5" max="5"/>
+    <col width="16.140625" customWidth="1" min="6" max="6"/>
+    <col width="16.42578125" customWidth="1" min="7" max="7"/>
+    <col width="14.140625" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="9.5703125" customWidth="1" min="11" max="11"/>
+    <col width="17.7109375" customWidth="1" min="12" max="12"/>
+    <col width="13.5703125" customWidth="1" min="13" max="13"/>
+    <col width="17.140625" customWidth="1" min="16" max="16"/>
+    <col width="10.140625" customWidth="1" min="18" max="18"/>
+    <col width="12.42578125" customWidth="1" min="19" max="19"/>
+    <col width="11.5703125" customWidth="1" min="20" max="28"/>
+    <col width="12.5703125" customWidth="1" min="29" max="33"/>
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>пользователь</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>баз хп</t>
@@ -603,6 +729,76 @@
       <c r="S1" t="inlineStr">
         <is>
           <t>меткость+</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Столбец1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Столбец2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Столбец3</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Столбец4</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Столбец5</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Столбец6</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Столбец7</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Столбец8</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Столбец9</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Столбец10</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Столбец11</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Столбец12</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Столбец13</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Столбец14</t>
         </is>
       </c>
     </row>
@@ -612,7 +808,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ke24</t>
+          <t>ke0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -696,101 +892,6 @@
         </is>
       </c>
       <c r="S2" t="inlineStr">
-        <is>
-          <t>or0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>694928710</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ke0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cc0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sy0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>fy0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>gt0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>sf0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>by0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ml0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>sr0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>as0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>se0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>je0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>bg0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>gn0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>pm0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>vl0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>on0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
         <is>
           <t>or0</t>
         </is>
@@ -798,5 +899,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>